--- a/WebApplication3/wwwroot/Formatos/ComfasubPresupuestoComfasub.xlsx
+++ b/WebApplication3/wwwroot/Formatos/ComfasubPresupuestoComfasub.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\source\repos\siesmar\WebApplication3\wwwroot\Formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIESMAR\siesmar\WebApplication3\wwwroot\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B0B782-AB27-45AD-8F7C-6D67181C8EA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68715839-C9FF-4C53-BD87-6443DCDD65FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{44ECC323-668F-4D6F-82FD-C2058C420F05}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>UNIDAD</t>
   </si>
@@ -55,6 +55,36 @@
   </si>
   <si>
     <t>FM53</t>
+  </si>
+  <si>
+    <t>GAS001</t>
+  </si>
+  <si>
+    <t>GAS002</t>
+  </si>
+  <si>
+    <t>GAS004</t>
+  </si>
+  <si>
+    <t>2.3.1.6.1.1</t>
+  </si>
+  <si>
+    <t>GAS005</t>
+  </si>
+  <si>
+    <t>SUB001</t>
+  </si>
+  <si>
+    <t>SUB009</t>
+  </si>
+  <si>
+    <t>2.3.1.5.4.1</t>
+  </si>
+  <si>
+    <t>2.3.2.4.1.3</t>
+  </si>
+  <si>
+    <t>2.3.1.11.12</t>
   </si>
 </sst>
 </file>
@@ -105,12 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +459,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,6 +468,7 @@
     <col min="4" max="4" width="15.26953125" customWidth="1"/>
     <col min="5" max="5" width="15.6328125" customWidth="1"/>
     <col min="6" max="6" width="10.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
@@ -469,104 +501,104 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>9000000</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>7000000</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>3450000</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>4</v>
       </c>
-      <c r="F4" s="2">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>3458475</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="2">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
